--- a/runs/Resultados_100_Rodadas_Keras_YOLO_com_Recall_Precisao.xlsx
+++ b/runs/Resultados_100_Rodadas_Keras_YOLO_com_Recall_Precisao.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Documents\TCC\KerasVSYolo11\runs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C2E7B-6866-4D2D-B317-4C61E5D76F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keras" sheetId="1" r:id="rId1"/>
     <sheet name="YOLOv11" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="9">
   <si>
     <t>Acurácia</t>
   </si>
@@ -34,12 +40,21 @@
   <si>
     <t>Tempo Inferência (s)</t>
   </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Keras</t>
+  </si>
+  <si>
+    <t>Yolov11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,6 +70,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -64,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,28 +108,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +190,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -180,6 +224,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -214,9 +259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -389,14 +435,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,128 +463,149 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.92</v>
       </c>
       <c r="B2">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="C2">
         <v>0.96</v>
       </c>
       <c r="D2">
-        <v>0.9230769230769231</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="E2">
-        <v>0.9199999999999999</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="F2">
-        <v>4.303486108779907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>4.3034861087799072</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B3">
-        <v>0.8505154639175257</v>
+        <v>0.85051546391752575</v>
       </c>
       <c r="C3">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D3">
-        <v>0.8943089430894309</v>
+        <v>0.89430894308943087</v>
       </c>
       <c r="E3">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="F3">
-        <v>4.764649152755737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>4.7646491527557373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B4">
-        <v>0.8736842105263158</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C4">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D4">
-        <v>0.9095890410958904</v>
+        <v>0.90958904109589045</v>
       </c>
       <c r="E4">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F4">
-        <v>4.339638471603394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>4.3396384716033944</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="B5">
-        <v>0.8520408163265306</v>
+        <v>0.85204081632653061</v>
       </c>
       <c r="C5">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D5">
-        <v>0.9002695417789758</v>
+        <v>0.90026954177897578</v>
       </c>
       <c r="E5">
-        <v>0.8942857142857144</v>
+        <v>0.89428571428571435</v>
       </c>
       <c r="F5">
-        <v>4.235078573226929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>4.2350785732269287</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="B6">
-        <v>0.8484848484848485</v>
+        <v>0.84848484848484851</v>
       </c>
       <c r="C6">
         <v>0.96</v>
       </c>
       <c r="D6">
-        <v>0.900804289544236</v>
+        <v>0.90080428954423597</v>
       </c>
       <c r="E6">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="F6">
-        <v>4.241668224334717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4.2416682243347168</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B7">
-        <v>0.8736842105263158</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C7">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D7">
-        <v>0.9095890410958904</v>
+        <v>0.90958904109589045</v>
       </c>
       <c r="E7">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F7">
-        <v>4.556179285049438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>4.5561792850494376</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.9</v>
       </c>
@@ -547,378 +616,435 @@
         <v>0.96</v>
       </c>
       <c r="D8">
-        <v>0.9056603773584906</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="E8">
-        <v>0.8999999999999999</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="F8">
-        <v>4.442677736282349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>4.4426777362823486</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="B9">
-        <v>0.8391959798994975</v>
+        <v>0.83919597989949746</v>
       </c>
       <c r="C9">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D9">
-        <v>0.893048128342246</v>
+        <v>0.89304812834224601</v>
       </c>
       <c r="E9">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="F9">
-        <v>4.843145608901978</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>4.8431456089019784</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="B10">
-        <v>0.8549222797927462</v>
+        <v>0.85492227979274615</v>
       </c>
       <c r="C10">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D10">
-        <v>0.8967391304347826</v>
+        <v>0.89673913043478259</v>
       </c>
       <c r="E10">
-        <v>0.8914285714285713</v>
+        <v>0.89142857142857135</v>
       </c>
       <c r="F10">
-        <v>4.584217071533203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>4.5842170715332031</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="B11">
         <v>0.859375</v>
       </c>
       <c r="C11">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D11">
-        <v>0.8991825613079019</v>
+        <v>0.89918256130790186</v>
       </c>
       <c r="E11">
-        <v>0.8942857142857144</v>
+        <v>0.89428571428571435</v>
       </c>
       <c r="F11">
-        <v>4.2353675365448</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>4.2353675365447998</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="B12">
-        <v>0.8601036269430051</v>
+        <v>0.86010362694300513</v>
       </c>
       <c r="C12">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D12">
-        <v>0.9021739130434783</v>
+        <v>0.90217391304347827</v>
       </c>
       <c r="E12">
-        <v>0.8971428571428572</v>
+        <v>0.89714285714285724</v>
       </c>
       <c r="F12">
-        <v>4.24763298034668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>4.2476329803466797</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.92</v>
       </c>
       <c r="B13">
-        <v>0.8972972972972973</v>
+        <v>0.89729729729729735</v>
       </c>
       <c r="C13">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D13">
-        <v>0.9222222222222223</v>
+        <v>0.92222222222222228</v>
       </c>
       <c r="E13">
         <v>0.92</v>
       </c>
       <c r="F13">
-        <v>4.235165596008301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>4.2351655960083008</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B14">
-        <v>0.8783068783068783</v>
+        <v>0.87830687830687826</v>
       </c>
       <c r="C14">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D14">
-        <v>0.9120879120879121</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="E14">
-        <v>0.9085714285714285</v>
+        <v>0.90857142857142847</v>
       </c>
       <c r="F14">
-        <v>4.267225027084351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>4.2672250270843506</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.9</v>
       </c>
       <c r="B15">
-        <v>0.8763440860215054</v>
+        <v>0.87634408602150538</v>
       </c>
       <c r="C15">
-        <v>0.9314285714285714</v>
+        <v>0.93142857142857138</v>
       </c>
       <c r="D15">
-        <v>0.9030470914127424</v>
+        <v>0.90304709141274242</v>
       </c>
       <c r="E15">
         <v>0.9</v>
       </c>
       <c r="F15">
-        <v>4.23542857170105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>4.2354285717010498</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="B16">
-        <v>0.8842105263157894</v>
+        <v>0.88421052631578945</v>
       </c>
       <c r="C16">
         <v>0.96</v>
       </c>
       <c r="D16">
-        <v>0.9205479452054794</v>
+        <v>0.92054794520547945</v>
       </c>
       <c r="E16">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="F16">
-        <v>4.274610280990601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>4.2746102809906006</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="B17">
-        <v>0.8492462311557789</v>
+        <v>0.84924623115577891</v>
       </c>
       <c r="C17">
-        <v>0.9657142857142857</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="D17">
-        <v>0.9037433155080213</v>
+        <v>0.90374331550802134</v>
       </c>
       <c r="E17">
-        <v>0.897142857142857</v>
+        <v>0.89714285714285702</v>
       </c>
       <c r="F17">
-        <v>4.23251748085022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>4.2325174808502197</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="B18">
-        <v>0.8967391304347826</v>
+        <v>0.89673913043478259</v>
       </c>
       <c r="C18">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D18">
-        <v>0.9192200557103064</v>
+        <v>0.91922005571030641</v>
       </c>
       <c r="E18">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="F18">
-        <v>4.382526397705078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>4.3825263977050781</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.9</v>
       </c>
       <c r="B19">
-        <v>0.8608247422680413</v>
+        <v>0.86082474226804129</v>
       </c>
       <c r="C19">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D19">
-        <v>0.9051490514905149</v>
+        <v>0.90514905149051494</v>
       </c>
       <c r="E19">
         <v>0.9</v>
       </c>
       <c r="F19">
-        <v>4.543146133422852</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>4.5431461334228516</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.9</v>
       </c>
       <c r="B20">
-        <v>0.8608247422680413</v>
+        <v>0.86082474226804129</v>
       </c>
       <c r="C20">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D20">
-        <v>0.9051490514905149</v>
+        <v>0.90514905149051494</v>
       </c>
       <c r="E20">
         <v>0.9</v>
       </c>
       <c r="F20">
-        <v>4.294562101364136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>4.2945621013641357</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="B21">
-        <v>0.8426395939086294</v>
+        <v>0.84263959390862941</v>
       </c>
       <c r="C21">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D21">
-        <v>0.8924731182795699</v>
+        <v>0.89247311827956988</v>
       </c>
       <c r="E21">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="F21">
-        <v>4.294739723205566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>4.2947397232055664</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B22">
-        <v>0.8469387755102041</v>
+        <v>0.84693877551020413</v>
       </c>
       <c r="C22">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D22">
-        <v>0.894878706199461</v>
+        <v>0.89487870619946097</v>
       </c>
       <c r="E22">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="F22">
-        <v>4.3040452003479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>4.3040452003479004</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.9028571428571428</v>
       </c>
       <c r="B23">
-        <v>0.873015873015873</v>
+        <v>0.87301587301587302</v>
       </c>
       <c r="C23">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D23">
-        <v>0.9065934065934066</v>
+        <v>0.90659340659340659</v>
       </c>
       <c r="E23">
         <v>0.9028571428571428</v>
       </c>
       <c r="F23">
-        <v>4.325493574142456</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>4.3254935741424561</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B24">
-        <v>0.8743455497382199</v>
+        <v>0.87434554973821987</v>
       </c>
       <c r="C24">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D24">
-        <v>0.912568306010929</v>
+        <v>0.91256830601092898</v>
       </c>
       <c r="E24">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F24">
-        <v>4.29721212387085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>4.2972121238708496</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="B25">
-        <v>0.8358974358974359</v>
+        <v>0.83589743589743593</v>
       </c>
       <c r="C25">
-        <v>0.9314285714285714</v>
+        <v>0.93142857142857138</v>
       </c>
       <c r="D25">
-        <v>0.8810810810810811</v>
+        <v>0.88108108108108107</v>
       </c>
       <c r="E25">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="F25">
         <v>4.299260139465332</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="B26">
-        <v>0.8512820512820513</v>
+        <v>0.85128205128205126</v>
       </c>
       <c r="C26">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D26">
-        <v>0.8972972972972973</v>
+        <v>0.89729729729729735</v>
       </c>
       <c r="E26">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="F26">
-        <v>4.247872114181519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>4.2478721141815194</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B27">
         <v>0.865979381443299</v>
@@ -927,167 +1053,191 @@
         <v>0.96</v>
       </c>
       <c r="D27">
-        <v>0.9105691056910569</v>
+        <v>0.91056910569105687</v>
       </c>
       <c r="E27">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="F27">
-        <v>4.223431587219238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>4.2234315872192383</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="B28">
-        <v>0.8477157360406091</v>
+        <v>0.84771573604060912</v>
       </c>
       <c r="C28">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D28">
-        <v>0.8978494623655914</v>
+        <v>0.89784946236559138</v>
       </c>
       <c r="E28">
-        <v>0.8914285714285712</v>
+        <v>0.89142857142857124</v>
       </c>
       <c r="F28">
-        <v>4.252184152603149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>4.2521841526031494</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B29">
-        <v>0.8743455497382199</v>
+        <v>0.87434554973821987</v>
       </c>
       <c r="C29">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D29">
-        <v>0.912568306010929</v>
+        <v>0.91256830601092898</v>
       </c>
       <c r="E29">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F29">
-        <v>4.252873659133911</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>4.2528736591339111</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="B30">
-        <v>0.8802083333333334</v>
+        <v>0.88020833333333337</v>
       </c>
       <c r="C30">
-        <v>0.9657142857142857</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="D30">
-        <v>0.9209809264305178</v>
+        <v>0.92098092643051777</v>
       </c>
       <c r="E30">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="F30">
-        <v>4.245839834213257</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>4.2458398342132568</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B31">
-        <v>0.8823529411764706</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="C31">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D31">
-        <v>0.9116022099447514</v>
+        <v>0.91160220994475138</v>
       </c>
       <c r="E31">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F31">
-        <v>4.251901626586914</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>4.2519016265869141</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B32">
-        <v>0.8823529411764706</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="C32">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D32">
-        <v>0.9116022099447514</v>
+        <v>0.91160220994475138</v>
       </c>
       <c r="E32">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F32">
-        <v>4.277722358703613</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>4.2777223587036133</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="B33">
         <v>0.8393782383419689</v>
       </c>
       <c r="C33">
-        <v>0.9257142857142857</v>
+        <v>0.92571428571428571</v>
       </c>
       <c r="D33">
-        <v>0.8804347826086957</v>
+        <v>0.88043478260869568</v>
       </c>
       <c r="E33">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="F33">
-        <v>4.292728424072266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>4.2927284240722656</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="B34">
         <v>0.859375</v>
       </c>
       <c r="C34">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D34">
-        <v>0.8991825613079019</v>
+        <v>0.89918256130790186</v>
       </c>
       <c r="E34">
-        <v>0.8942857142857144</v>
+        <v>0.89428571428571435</v>
       </c>
       <c r="F34">
-        <v>4.244247674942017</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>4.2442476749420166</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.8828571428571429</v>
       </c>
       <c r="B35">
-        <v>0.845360824742268</v>
+        <v>0.84536082474226804</v>
       </c>
       <c r="C35">
-        <v>0.9371428571428572</v>
+        <v>0.93714285714285717</v>
       </c>
       <c r="D35">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E35">
         <v>0.8828571428571429</v>
@@ -1095,490 +1245,565 @@
       <c r="F35">
         <v>4.26621413230896</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B36">
-        <v>0.8505154639175257</v>
+        <v>0.85051546391752575</v>
       </c>
       <c r="C36">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D36">
-        <v>0.8943089430894309</v>
+        <v>0.89430894308943087</v>
       </c>
       <c r="E36">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="F36">
-        <v>4.224324226379395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>4.2243242263793954</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B37">
-        <v>0.8469387755102041</v>
+        <v>0.84693877551020413</v>
       </c>
       <c r="C37">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D37">
-        <v>0.894878706199461</v>
+        <v>0.89487870619946097</v>
       </c>
       <c r="E37">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="F37">
-        <v>4.246723413467407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>4.2467234134674072</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.9</v>
       </c>
       <c r="B38">
-        <v>0.8645833333333334</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="C38">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D38">
-        <v>0.9046321525885559</v>
+        <v>0.90463215258855589</v>
       </c>
       <c r="E38">
         <v>0.9</v>
       </c>
       <c r="F38">
-        <v>4.242615699768066</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>4.2426156997680664</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="B39">
-        <v>0.8512820512820513</v>
+        <v>0.85128205128205126</v>
       </c>
       <c r="C39">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D39">
-        <v>0.8972972972972973</v>
+        <v>0.89729729729729735</v>
       </c>
       <c r="E39">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="F39">
-        <v>4.268588304519653</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>4.2685883045196533</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.9</v>
       </c>
       <c r="B40">
-        <v>0.8645833333333334</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="C40">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D40">
-        <v>0.9046321525885559</v>
+        <v>0.90463215258855589</v>
       </c>
       <c r="E40">
         <v>0.9</v>
       </c>
       <c r="F40">
-        <v>4.234343767166138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>4.2343437671661377</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B41">
-        <v>0.8743455497382199</v>
+        <v>0.87434554973821987</v>
       </c>
       <c r="C41">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D41">
-        <v>0.912568306010929</v>
+        <v>0.91256830601092898</v>
       </c>
       <c r="E41">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F41">
-        <v>4.238498449325562</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>4.2384984493255624</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.8828571428571429</v>
       </c>
       <c r="B42">
-        <v>0.845360824742268</v>
+        <v>0.84536082474226804</v>
       </c>
       <c r="C42">
-        <v>0.9371428571428572</v>
+        <v>0.93714285714285717</v>
       </c>
       <c r="D42">
-        <v>0.8888888888888888</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="E42">
         <v>0.8828571428571429</v>
       </c>
       <c r="F42">
-        <v>4.21361255645752</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>4.2136125564575204</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.9</v>
       </c>
       <c r="B43">
-        <v>0.868421052631579</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="C43">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D43">
-        <v>0.9041095890410958</v>
+        <v>0.90410958904109584</v>
       </c>
       <c r="E43">
-        <v>0.9000000000000001</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="F43">
-        <v>4.202083110809326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>4.2020831108093262</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="B44">
-        <v>0.8967391304347826</v>
+        <v>0.89673913043478259</v>
       </c>
       <c r="C44">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D44">
-        <v>0.9192200557103064</v>
+        <v>0.91922005571030641</v>
       </c>
       <c r="E44">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="F44">
-        <v>4.247332096099854</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>4.2473320960998544</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B45">
-        <v>0.8505154639175257</v>
+        <v>0.85051546391752575</v>
       </c>
       <c r="C45">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D45">
-        <v>0.8943089430894309</v>
+        <v>0.89430894308943087</v>
       </c>
       <c r="E45">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="F45">
         <v>4.219907283782959</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="B46">
-        <v>0.8677248677248677</v>
+        <v>0.86772486772486768</v>
       </c>
       <c r="C46">
-        <v>0.9371428571428572</v>
+        <v>0.93714285714285717</v>
       </c>
       <c r="D46">
-        <v>0.9010989010989011</v>
+        <v>0.90109890109890112</v>
       </c>
       <c r="E46">
-        <v>0.8971428571428572</v>
+        <v>0.89714285714285724</v>
       </c>
       <c r="F46">
-        <v>4.236653089523315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>4.2366530895233154</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="B47">
-        <v>0.8638743455497382</v>
+        <v>0.86387434554973819</v>
       </c>
       <c r="C47">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D47">
-        <v>0.9016393442622951</v>
+        <v>0.90163934426229508</v>
       </c>
       <c r="E47">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="F47">
-        <v>4.43236780166626</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>4.4323678016662598</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.9142857142857143</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="B48">
-        <v>0.8877005347593583</v>
+        <v>0.88770053475935828</v>
       </c>
       <c r="C48">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D48">
-        <v>0.9171270718232044</v>
+        <v>0.91712707182320441</v>
       </c>
       <c r="E48">
-        <v>0.9142857142857143</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="F48">
-        <v>4.245973348617554</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>4.2459733486175537</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="B49">
-        <v>0.8882978723404256</v>
+        <v>0.88829787234042556</v>
       </c>
       <c r="C49">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D49">
-        <v>0.9201101928374655</v>
+        <v>0.92011019283746553</v>
       </c>
       <c r="E49">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="F49">
-        <v>4.237717151641846</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>4.2377171516418457</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="B50">
-        <v>0.8870967741935484</v>
+        <v>0.88709677419354838</v>
       </c>
       <c r="C50">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D50">
-        <v>0.9141274238227147</v>
+        <v>0.91412742382271472</v>
       </c>
       <c r="E50">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="F50">
-        <v>4.187336444854736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>4.1873364448547363</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="B51">
-        <v>0.8711340206185567</v>
+        <v>0.87113402061855671</v>
       </c>
       <c r="C51">
-        <v>0.9657142857142857</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="D51">
         <v>0.9159891598915989</v>
       </c>
       <c r="E51">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="F51">
-        <v>4.712468862533569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>4.7124688625335693</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B52">
-        <v>0.8697916666666666</v>
+        <v>0.86979166666666663</v>
       </c>
       <c r="C52">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D52">
-        <v>0.9100817438692098</v>
+        <v>0.91008174386920981</v>
       </c>
       <c r="E52">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F52">
-        <v>4.143275022506714</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>4.1432750225067139</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="B53">
-        <v>0.8549222797927462</v>
+        <v>0.85492227979274615</v>
       </c>
       <c r="C53">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D53">
-        <v>0.8967391304347826</v>
+        <v>0.89673913043478259</v>
       </c>
       <c r="E53">
-        <v>0.8914285714285713</v>
+        <v>0.89142857142857135</v>
       </c>
       <c r="F53">
-        <v>4.147090911865234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>4.1470909118652344</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B54">
-        <v>0.8434343434343434</v>
+        <v>0.84343434343434343</v>
       </c>
       <c r="C54">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D54">
         <v>0.8954423592493298</v>
       </c>
       <c r="E54">
-        <v>0.8885714285714285</v>
+        <v>0.88857142857142846</v>
       </c>
       <c r="F54">
-        <v>4.191513061523438</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>4.1915130615234384</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.8828571428571429</v>
       </c>
       <c r="B55">
-        <v>0.8489583333333334</v>
+        <v>0.84895833333333337</v>
       </c>
       <c r="C55">
-        <v>0.9314285714285714</v>
+        <v>0.93142857142857138</v>
       </c>
       <c r="D55">
-        <v>0.888283378746594</v>
+        <v>0.88828337874659402</v>
       </c>
       <c r="E55">
         <v>0.8828571428571429</v>
       </c>
       <c r="F55">
-        <v>4.145886421203613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>4.1458864212036133</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.9028571428571428</v>
       </c>
       <c r="B56">
-        <v>0.8691099476439791</v>
+        <v>0.86910994764397909</v>
       </c>
       <c r="C56">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D56">
-        <v>0.907103825136612</v>
+        <v>0.90710382513661203</v>
       </c>
       <c r="E56">
-        <v>0.902857142857143</v>
+        <v>0.90285714285714302</v>
       </c>
       <c r="F56">
-        <v>4.431792974472046</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>4.4317929744720459</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.9028571428571428</v>
       </c>
       <c r="B57">
-        <v>0.8770053475935828</v>
+        <v>0.87700534759358284</v>
       </c>
       <c r="C57">
-        <v>0.9371428571428572</v>
+        <v>0.93714285714285717</v>
       </c>
       <c r="D57">
-        <v>0.9060773480662984</v>
+        <v>0.90607734806629836</v>
       </c>
       <c r="E57">
-        <v>0.9028571428571429</v>
+        <v>0.90285714285714291</v>
       </c>
       <c r="F57">
-        <v>4.445447444915771</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>4.4454474449157706</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.88</v>
       </c>
       <c r="B58">
-        <v>0.8341708542713567</v>
+        <v>0.83417085427135673</v>
       </c>
       <c r="C58">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D58">
-        <v>0.8877005347593583</v>
+        <v>0.88770053475935828</v>
       </c>
       <c r="E58">
         <v>0.88</v>
       </c>
       <c r="F58">
-        <v>4.683666944503784</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>4.6836669445037842</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="B59">
-        <v>0.8789473684210526</v>
+        <v>0.87894736842105259</v>
       </c>
       <c r="C59">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D59">
-        <v>0.9150684931506849</v>
+        <v>0.91506849315068495</v>
       </c>
       <c r="E59">
-        <v>0.9114285714285714</v>
+        <v>0.91142857142857137</v>
       </c>
       <c r="F59">
-        <v>4.386191606521606</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>4.3861916065216056</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B60">
         <v>0.865979381443299</v>
@@ -1587,18 +1812,21 @@
         <v>0.96</v>
       </c>
       <c r="D60">
-        <v>0.9105691056910569</v>
+        <v>0.91056910569105687</v>
       </c>
       <c r="E60">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="F60">
-        <v>4.441182374954224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>4.4411823749542236</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B61">
         <v>0.865979381443299</v>
@@ -1607,458 +1835,527 @@
         <v>0.96</v>
       </c>
       <c r="D61">
-        <v>0.9105691056910569</v>
+        <v>0.91056910569105687</v>
       </c>
       <c r="E61">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="F61">
-        <v>4.396003723144531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>4.3960037231445313</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B62">
-        <v>0.8736842105263158</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C62">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D62">
-        <v>0.9095890410958904</v>
+        <v>0.90958904109589045</v>
       </c>
       <c r="E62">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F62">
         <v>4.390031099319458</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B63">
-        <v>0.8736842105263158</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C63">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D63">
-        <v>0.9095890410958904</v>
+        <v>0.90958904109589045</v>
       </c>
       <c r="E63">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F63">
-        <v>4.467987537384033</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>4.4679875373840332</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="B64">
-        <v>0.8556701030927835</v>
+        <v>0.85567010309278346</v>
       </c>
       <c r="C64">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D64">
-        <v>0.8997289972899729</v>
+        <v>0.89972899728997291</v>
       </c>
       <c r="E64">
-        <v>0.8942857142857144</v>
+        <v>0.89428571428571435</v>
       </c>
       <c r="F64">
-        <v>4.368284463882446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>4.3682844638824463</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.8914285714285715</v>
+        <v>0.89142857142857146</v>
       </c>
       <c r="B65">
-        <v>0.8549222797927462</v>
+        <v>0.85492227979274615</v>
       </c>
       <c r="C65">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D65">
-        <v>0.8967391304347826</v>
+        <v>0.89673913043478259</v>
       </c>
       <c r="E65">
-        <v>0.8914285714285713</v>
+        <v>0.89142857142857135</v>
       </c>
       <c r="F65">
-        <v>4.33679461479187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>4.3367946147918701</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.8828571428571429</v>
       </c>
       <c r="B66">
-        <v>0.8383838383838383</v>
+        <v>0.83838383838383834</v>
       </c>
       <c r="C66">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D66">
-        <v>0.8900804289544236</v>
+        <v>0.89008042895442363</v>
       </c>
       <c r="E66">
         <v>0.8828571428571429</v>
       </c>
       <c r="F66">
-        <v>4.72437596321106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>4.7243759632110596</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.9</v>
       </c>
       <c r="B67">
-        <v>0.868421052631579</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="C67">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D67">
-        <v>0.9041095890410958</v>
+        <v>0.90410958904109584</v>
       </c>
       <c r="E67">
-        <v>0.9000000000000001</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="F67">
-        <v>4.531329393386841</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>4.5313293933868408</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.9</v>
       </c>
       <c r="B68">
-        <v>0.868421052631579</v>
+        <v>0.86842105263157898</v>
       </c>
       <c r="C68">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D68">
-        <v>0.9041095890410958</v>
+        <v>0.90410958904109584</v>
       </c>
       <c r="E68">
-        <v>0.9000000000000001</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="F68">
         <v>4.621140718460083</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B69">
-        <v>0.8783068783068783</v>
+        <v>0.87830687830687826</v>
       </c>
       <c r="C69">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D69">
-        <v>0.9120879120879121</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="E69">
-        <v>0.9085714285714285</v>
+        <v>0.90857142857142847</v>
       </c>
       <c r="F69">
-        <v>4.662333250045776</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>4.6623332500457764</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="B70">
-        <v>0.8789473684210526</v>
+        <v>0.87894736842105259</v>
       </c>
       <c r="C70">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D70">
-        <v>0.9150684931506849</v>
+        <v>0.91506849315068495</v>
       </c>
       <c r="E70">
-        <v>0.9114285714285714</v>
+        <v>0.91142857142857137</v>
       </c>
       <c r="F70">
-        <v>4.507540941238403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>4.5075409412384033</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B71">
-        <v>0.8697916666666666</v>
+        <v>0.86979166666666663</v>
       </c>
       <c r="C71">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D71">
-        <v>0.9100817438692098</v>
+        <v>0.91008174386920981</v>
       </c>
       <c r="E71">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F71">
         <v>4.462064266204834</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.9</v>
       </c>
       <c r="B72">
-        <v>0.8645833333333334</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="C72">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D72">
-        <v>0.9046321525885559</v>
+        <v>0.90463215258855589</v>
       </c>
       <c r="E72">
         <v>0.9</v>
       </c>
       <c r="F72">
-        <v>4.594541311264038</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>4.5945413112640381</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="B73">
-        <v>0.845</v>
+        <v>0.84499999999999997</v>
       </c>
       <c r="C73">
-        <v>0.9657142857142857</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="D73">
-        <v>0.9013333333333333</v>
+        <v>0.90133333333333332</v>
       </c>
       <c r="E73">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="F73">
-        <v>4.482642412185669</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>4.4826424121856689</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B74">
-        <v>0.8736842105263158</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C74">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D74">
-        <v>0.9095890410958904</v>
+        <v>0.90958904109589045</v>
       </c>
       <c r="E74">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F74">
-        <v>4.445785522460938</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>4.4457855224609384</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.9142857142857143</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="B75">
-        <v>0.8756476683937824</v>
+        <v>0.87564766839378239</v>
       </c>
       <c r="C75">
-        <v>0.9657142857142857</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="D75">
-        <v>0.9184782608695652</v>
+        <v>0.91847826086956519</v>
       </c>
       <c r="E75">
-        <v>0.9142857142857144</v>
+        <v>0.91428571428571437</v>
       </c>
       <c r="F75">
-        <v>4.468300342559814</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>4.4683003425598136</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="B76">
-        <v>0.8677248677248677</v>
+        <v>0.86772486772486768</v>
       </c>
       <c r="C76">
-        <v>0.9371428571428572</v>
+        <v>0.93714285714285717</v>
       </c>
       <c r="D76">
-        <v>0.9010989010989011</v>
+        <v>0.90109890109890112</v>
       </c>
       <c r="E76">
-        <v>0.8971428571428572</v>
+        <v>0.89714285714285724</v>
       </c>
       <c r="F76">
-        <v>4.711582899093628</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>4.7115828990936279</v>
+      </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="B77">
-        <v>0.8882978723404256</v>
+        <v>0.88829787234042556</v>
       </c>
       <c r="C77">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D77">
-        <v>0.9201101928374655</v>
+        <v>0.92011019283746553</v>
       </c>
       <c r="E77">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="F77">
-        <v>4.421661138534546</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>4.4216611385345459</v>
+      </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.9</v>
       </c>
       <c r="B78">
-        <v>0.8645833333333334</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="C78">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D78">
-        <v>0.9046321525885559</v>
+        <v>0.90463215258855589</v>
       </c>
       <c r="E78">
         <v>0.9</v>
       </c>
       <c r="F78">
-        <v>4.4024977684021</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>4.4024977684020996</v>
+      </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B79">
-        <v>0.8697916666666666</v>
+        <v>0.86979166666666663</v>
       </c>
       <c r="C79">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D79">
-        <v>0.9100817438692098</v>
+        <v>0.91008174386920981</v>
       </c>
       <c r="E79">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F79">
         <v>4.449183464050293</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.9057142857142857</v>
+        <v>0.90571428571428569</v>
       </c>
       <c r="B80">
-        <v>0.8736842105263158</v>
+        <v>0.87368421052631584</v>
       </c>
       <c r="C80">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D80">
-        <v>0.9095890410958904</v>
+        <v>0.90958904109589045</v>
       </c>
       <c r="E80">
-        <v>0.9057142857142858</v>
+        <v>0.90571428571428581</v>
       </c>
       <c r="F80">
-        <v>4.443498849868774</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>4.4434988498687744</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.9</v>
       </c>
       <c r="B81">
-        <v>0.8608247422680413</v>
+        <v>0.86082474226804129</v>
       </c>
       <c r="C81">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D81">
-        <v>0.9051490514905149</v>
+        <v>0.90514905149051494</v>
       </c>
       <c r="E81">
         <v>0.9</v>
       </c>
       <c r="F81">
-        <v>4.438071250915527</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>4.4380712509155273</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B82">
-        <v>0.8743455497382199</v>
+        <v>0.87434554973821987</v>
       </c>
       <c r="C82">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D82">
-        <v>0.912568306010929</v>
+        <v>0.91256830601092898</v>
       </c>
       <c r="E82">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F82">
-        <v>4.458646774291992</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>4.4586467742919922</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="B83">
-        <v>0.8426395939086294</v>
+        <v>0.84263959390862941</v>
       </c>
       <c r="C83">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D83">
-        <v>0.8924731182795699</v>
+        <v>0.89247311827956988</v>
       </c>
       <c r="E83">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="F83">
-        <v>4.419843912124634</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>4.4198439121246338</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B84">
         <v>0.8704663212435233</v>
@@ -2067,178 +2364,205 @@
         <v>0.96</v>
       </c>
       <c r="D84">
-        <v>0.9130434782608695</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="E84">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F84">
-        <v>4.397448539733887</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>4.3974485397338867</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B85">
-        <v>0.8505154639175257</v>
+        <v>0.85051546391752575</v>
       </c>
       <c r="C85">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D85">
-        <v>0.8943089430894309</v>
+        <v>0.89430894308943087</v>
       </c>
       <c r="E85">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="F85">
-        <v>4.416678190231323</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>4.4166781902313232</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.8771428571428571</v>
+        <v>0.87714285714285711</v>
       </c>
       <c r="B86">
-        <v>0.8402061855670103</v>
+        <v>0.84020618556701032</v>
       </c>
       <c r="C86">
-        <v>0.9314285714285714</v>
+        <v>0.93142857142857138</v>
       </c>
       <c r="D86">
-        <v>0.8834688346883469</v>
+        <v>0.88346883468834692</v>
       </c>
       <c r="E86">
-        <v>0.8771428571428571</v>
+        <v>0.87714285714285711</v>
       </c>
       <c r="F86">
-        <v>4.487064838409424</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>4.4870648384094238</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>0.9028571428571428</v>
       </c>
       <c r="B87">
-        <v>0.873015873015873</v>
+        <v>0.87301587301587302</v>
       </c>
       <c r="C87">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D87">
-        <v>0.9065934065934066</v>
+        <v>0.90659340659340659</v>
       </c>
       <c r="E87">
         <v>0.9028571428571428</v>
       </c>
       <c r="F87">
-        <v>4.430211544036865</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>4.4302115440368652</v>
+      </c>
+      <c r="G87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.9028571428571428</v>
       </c>
       <c r="B88">
-        <v>0.873015873015873</v>
+        <v>0.87301587301587302</v>
       </c>
       <c r="C88">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D88">
-        <v>0.9065934065934066</v>
+        <v>0.90659340659340659</v>
       </c>
       <c r="E88">
         <v>0.9028571428571428</v>
       </c>
       <c r="F88">
-        <v>4.411621809005737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>4.4116218090057373</v>
+      </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="B89">
-        <v>0.8882978723404256</v>
+        <v>0.88829787234042556</v>
       </c>
       <c r="C89">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D89">
-        <v>0.9201101928374655</v>
+        <v>0.92011019283746553</v>
       </c>
       <c r="E89">
-        <v>0.9171428571428571</v>
+        <v>0.91714285714285715</v>
       </c>
       <c r="F89">
-        <v>4.340826749801636</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>4.3408267498016357</v>
+      </c>
+      <c r="G89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>0.9</v>
       </c>
       <c r="B90">
-        <v>0.8645833333333334</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="C90">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D90">
-        <v>0.9046321525885559</v>
+        <v>0.90463215258855589</v>
       </c>
       <c r="E90">
         <v>0.9</v>
       </c>
       <c r="F90">
-        <v>4.360158205032349</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>4.3601582050323486</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="B91">
-        <v>0.8564102564102564</v>
+        <v>0.85641025641025637</v>
       </c>
       <c r="C91">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D91">
         <v>0.9027027027027027</v>
       </c>
       <c r="E91">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="F91">
-        <v>4.364440679550171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>4.3644406795501709</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="B92">
-        <v>0.8291457286432161</v>
+        <v>0.82914572864321612</v>
       </c>
       <c r="C92">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D92">
-        <v>0.8823529411764706</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="E92">
-        <v>0.8742857142857142</v>
+        <v>0.87428571428571422</v>
       </c>
       <c r="F92">
         <v>4.376662015914917</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="B93">
         <v>0.875</v>
@@ -2247,173 +2571,200 @@
         <v>0.96</v>
       </c>
       <c r="D93">
-        <v>0.9155313351498637</v>
+        <v>0.91553133514986373</v>
       </c>
       <c r="E93">
-        <v>0.9114285714285715</v>
+        <v>0.91142857142857148</v>
       </c>
       <c r="F93">
-        <v>4.79023551940918</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>4.7902355194091797</v>
+      </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>0.9028571428571428</v>
       </c>
       <c r="B94">
-        <v>0.8691099476439791</v>
+        <v>0.86910994764397909</v>
       </c>
       <c r="C94">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D94">
-        <v>0.907103825136612</v>
+        <v>0.90710382513661203</v>
       </c>
       <c r="E94">
-        <v>0.902857142857143</v>
+        <v>0.90285714285714302</v>
       </c>
       <c r="F94">
-        <v>4.952913522720337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>4.9529135227203369</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.8971428571428571</v>
+        <v>0.89714285714285713</v>
       </c>
       <c r="B95">
-        <v>0.8677248677248677</v>
+        <v>0.86772486772486768</v>
       </c>
       <c r="C95">
-        <v>0.9371428571428572</v>
+        <v>0.93714285714285717</v>
       </c>
       <c r="D95">
-        <v>0.9010989010989011</v>
+        <v>0.90109890109890112</v>
       </c>
       <c r="E95">
-        <v>0.8971428571428572</v>
+        <v>0.89714285714285724</v>
       </c>
       <c r="F95">
-        <v>4.240129232406616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>4.2401292324066162</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B96">
         <v>0.8666666666666667</v>
       </c>
       <c r="C96">
-        <v>0.9657142857142857</v>
+        <v>0.96571428571428575</v>
       </c>
       <c r="D96">
-        <v>0.9135135135135135</v>
+        <v>0.91351351351351351</v>
       </c>
       <c r="E96">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="F96">
-        <v>4.220319747924805</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>4.2203197479248047</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.9085714285714286</v>
+        <v>0.90857142857142859</v>
       </c>
       <c r="B97">
-        <v>0.8783068783068783</v>
+        <v>0.87830687830687826</v>
       </c>
       <c r="C97">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D97">
-        <v>0.9120879120879121</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="E97">
-        <v>0.9085714285714285</v>
+        <v>0.90857142857142847</v>
       </c>
       <c r="F97">
-        <v>4.220525026321411</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>4.2205250263214111</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.9028571428571428</v>
       </c>
       <c r="B98">
-        <v>0.873015873015873</v>
+        <v>0.87301587301587302</v>
       </c>
       <c r="C98">
-        <v>0.9428571428571428</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="D98">
-        <v>0.9065934065934066</v>
+        <v>0.90659340659340659</v>
       </c>
       <c r="E98">
         <v>0.9028571428571428</v>
       </c>
       <c r="F98">
-        <v>4.223459720611572</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>4.2234597206115723</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.8942857142857142</v>
+        <v>0.89428571428571424</v>
       </c>
       <c r="B99">
-        <v>0.8556701030927835</v>
+        <v>0.85567010309278346</v>
       </c>
       <c r="C99">
-        <v>0.9485714285714286</v>
+        <v>0.94857142857142862</v>
       </c>
       <c r="D99">
-        <v>0.8997289972899729</v>
+        <v>0.89972899728997291</v>
       </c>
       <c r="E99">
-        <v>0.8942857142857144</v>
+        <v>0.89428571428571435</v>
       </c>
       <c r="F99">
-        <v>4.220992803573608</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>4.2209928035736084</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.8885714285714286</v>
+        <v>0.88857142857142857</v>
       </c>
       <c r="B100">
-        <v>0.8434343434343434</v>
+        <v>0.84343434343434343</v>
       </c>
       <c r="C100">
-        <v>0.9542857142857143</v>
+        <v>0.95428571428571429</v>
       </c>
       <c r="D100">
         <v>0.8954423592493298</v>
       </c>
       <c r="E100">
-        <v>0.8885714285714285</v>
+        <v>0.88857142857142846</v>
       </c>
       <c r="F100">
-        <v>4.779828071594238</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>4.7798280715942383</v>
+      </c>
+      <c r="G100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>0.9028571428571428</v>
       </c>
       <c r="B101">
-        <v>0.8615384615384616</v>
+        <v>0.86153846153846159</v>
       </c>
       <c r="C101">
         <v>0.96</v>
       </c>
       <c r="D101">
-        <v>0.9081081081081082</v>
+        <v>0.90810810810810816</v>
       </c>
       <c r="E101">
         <v>0.9028571428571428</v>
       </c>
       <c r="F101">
-        <v>4.330788612365723</v>
+        <v>4.3307886123657227</v>
+      </c>
+      <c r="G101" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2422,14 +2773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2448,50 +2801,59 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.8257142857142857</v>
+        <v>0.82571428571428573</v>
       </c>
       <c r="B2">
         <v>0.8392857142857143</v>
       </c>
       <c r="C2">
-        <v>0.8057142857142857</v>
+        <v>0.80571428571428572</v>
       </c>
       <c r="D2">
-        <v>0.8221574344023324</v>
+        <v>0.82215743440233235</v>
       </c>
       <c r="E2">
-        <v>0.8257142857142857</v>
+        <v>0.82571428571428573</v>
       </c>
       <c r="F2">
-        <v>6.015368938446045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>6.0153689384460449</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="B3">
         <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="D3">
-        <v>0.8405797101449275</v>
+        <v>0.84057971014492749</v>
       </c>
       <c r="E3">
-        <v>0.8428571428571431</v>
+        <v>0.84285714285714308</v>
       </c>
       <c r="F3">
-        <v>6.06751561164856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>6.0675156116485596</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="B4">
         <v>0.8771929824561403</v>
@@ -2500,16 +2862,19 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D4">
-        <v>0.8670520231213873</v>
+        <v>0.86705202312138729</v>
       </c>
       <c r="E4">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="F4">
-        <v>5.927059650421143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5.9270596504211426</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.8571428571428571</v>
       </c>
@@ -2523,24 +2888,27 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E5">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F5">
-        <v>5.86743950843811</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>5.8674395084381104</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B6">
-        <v>0.8647058823529412</v>
+        <v>0.86470588235294121</v>
       </c>
       <c r="C6">
         <v>0.84</v>
       </c>
       <c r="D6">
-        <v>0.8521739130434782</v>
+        <v>0.85217391304347823</v>
       </c>
       <c r="E6">
         <v>0.8542857142857142</v>
@@ -2548,79 +2916,91 @@
       <c r="F6">
         <v>6.29990553855896</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B7">
-        <v>0.8435754189944135</v>
+        <v>0.84357541899441346</v>
       </c>
       <c r="C7">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D7">
-        <v>0.8531073446327684</v>
+        <v>0.85310734463276838</v>
       </c>
       <c r="E7">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F7">
-        <v>6.508877992630005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>6.5088779926300049</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="B8">
-        <v>0.8713450292397661</v>
+        <v>0.87134502923976609</v>
       </c>
       <c r="C8">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D8">
-        <v>0.861271676300578</v>
+        <v>0.86127167630057799</v>
       </c>
       <c r="E8">
-        <v>0.862857142857143</v>
+        <v>0.86285714285714299</v>
       </c>
       <c r="F8">
-        <v>6.516283988952637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>6.5162839889526367</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="B9">
-        <v>0.8728323699421965</v>
+        <v>0.87283236994219648</v>
       </c>
       <c r="C9">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D9">
-        <v>0.867816091954023</v>
+        <v>0.86781609195402298</v>
       </c>
       <c r="E9">
-        <v>0.8685714285714287</v>
+        <v>0.86857142857142866</v>
       </c>
       <c r="F9">
         <v>7.021242618560791</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.8571428571428571</v>
       </c>
       <c r="B10">
-        <v>0.8491620111731844</v>
+        <v>0.84916201117318435</v>
       </c>
       <c r="C10">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="D10">
-        <v>0.8587570621468926</v>
+        <v>0.85875706214689262</v>
       </c>
       <c r="E10">
         <v>0.8571428571428571</v>
@@ -2628,188 +3008,218 @@
       <c r="F10">
         <v>6.077397346496582</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.88</v>
       </c>
       <c r="B11">
-        <v>0.884393063583815</v>
+        <v>0.88439306358381498</v>
       </c>
       <c r="C11">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="D11">
-        <v>0.8793103448275862</v>
+        <v>0.87931034482758619</v>
       </c>
       <c r="E11">
         <v>0.88</v>
       </c>
       <c r="F11">
-        <v>5.9317946434021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>5.9317946434020996</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="B12">
-        <v>0.8922155688622755</v>
+        <v>0.89221556886227549</v>
       </c>
       <c r="C12">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D12">
-        <v>0.8713450292397661</v>
+        <v>0.87134502923976609</v>
       </c>
       <c r="E12">
-        <v>0.8742857142857142</v>
+        <v>0.87428571428571422</v>
       </c>
       <c r="F12">
-        <v>5.996171951293945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>5.9961719512939453</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="B13">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="C13">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D13">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="E13">
-        <v>0.862857142857143</v>
+        <v>0.86285714285714299</v>
       </c>
       <c r="F13">
-        <v>6.1792311668396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>6.1792311668395996</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.86</v>
       </c>
       <c r="B14">
-        <v>0.8579545454545454</v>
+        <v>0.85795454545454541</v>
       </c>
       <c r="C14">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D14">
-        <v>0.8603988603988604</v>
+        <v>0.86039886039886038</v>
       </c>
       <c r="E14">
         <v>0.8600000000000001</v>
       </c>
       <c r="F14">
-        <v>5.992136001586914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>5.9921360015869141</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B15">
-        <v>0.8522727272727273</v>
+        <v>0.85227272727272729</v>
       </c>
       <c r="C15">
         <v>0.8571428571428571</v>
       </c>
       <c r="D15">
-        <v>0.8547008547008547</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="E15">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="F15">
         <v>6.009758472442627</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B16">
         <v>0.8554913294797688</v>
       </c>
       <c r="C16">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="D16">
-        <v>0.8505747126436781</v>
+        <v>0.85057471264367812</v>
       </c>
       <c r="E16">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F16">
-        <v>6.013058185577393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>6.0130581855773926</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.84</v>
       </c>
       <c r="B17">
-        <v>0.8324022346368715</v>
+        <v>0.83240223463687146</v>
       </c>
       <c r="C17">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D17">
-        <v>0.8418079096045198</v>
+        <v>0.84180790960451979</v>
       </c>
       <c r="E17">
-        <v>0.8399999999999999</v>
+        <v>0.83999999999999986</v>
       </c>
       <c r="F17">
-        <v>6.361117601394653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>6.3611176013946533</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="B18">
-        <v>0.867816091954023</v>
+        <v>0.86781609195402298</v>
       </c>
       <c r="C18">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D18">
-        <v>0.8653295128939829</v>
+        <v>0.86532951289398286</v>
       </c>
       <c r="E18">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="F18">
-        <v>6.04548454284668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>6.0454845428466797</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="B19">
         <v>0.8370786516853933</v>
       </c>
       <c r="C19">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D19">
-        <v>0.8441926345609065</v>
+        <v>0.84419263456090654</v>
       </c>
       <c r="E19">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="F19">
-        <v>6.313820123672485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>6.3138201236724854</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.8571428571428571</v>
       </c>
@@ -2823,24 +3233,27 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E20">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F20">
-        <v>5.990816354751587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>5.9908163547515869</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.86</v>
       </c>
       <c r="B21">
-        <v>0.8579545454545454</v>
+        <v>0.85795454545454541</v>
       </c>
       <c r="C21">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D21">
-        <v>0.8603988603988604</v>
+        <v>0.86039886039886038</v>
       </c>
       <c r="E21">
         <v>0.8600000000000001</v>
@@ -2848,90 +3261,105 @@
       <c r="F21">
         <v>6.039602518081665</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="B22">
-        <v>0.8418079096045198</v>
+        <v>0.84180790960451979</v>
       </c>
       <c r="C22">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D22">
-        <v>0.8465909090909091</v>
+        <v>0.84659090909090906</v>
       </c>
       <c r="E22">
-        <v>0.8457142857142856</v>
+        <v>0.84571428571428564</v>
       </c>
       <c r="F22">
-        <v>6.099197864532471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>6.0991978645324707</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="B23">
-        <v>0.8802395209580839</v>
+        <v>0.88023952095808389</v>
       </c>
       <c r="C23">
         <v>0.84</v>
       </c>
       <c r="D23">
-        <v>0.8596491228070176</v>
+        <v>0.85964912280701755</v>
       </c>
       <c r="E23">
-        <v>0.8628571428571428</v>
+        <v>0.86285714285714277</v>
       </c>
       <c r="F23">
-        <v>6.153119087219238</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>6.1531190872192383</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="B24">
-        <v>0.8670520231213873</v>
+        <v>0.86705202312138729</v>
       </c>
       <c r="C24">
         <v>0.8571428571428571</v>
       </c>
       <c r="D24">
-        <v>0.8620689655172413</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="E24">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="F24">
-        <v>5.961292505264282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>5.9612925052642822</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="B25">
-        <v>0.8728323699421965</v>
+        <v>0.87283236994219648</v>
       </c>
       <c r="C25">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D25">
-        <v>0.867816091954023</v>
+        <v>0.86781609195402298</v>
       </c>
       <c r="E25">
-        <v>0.8685714285714287</v>
+        <v>0.86857142857142866</v>
       </c>
       <c r="F25">
-        <v>5.999031543731689</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>5.9990315437316886</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="B26">
         <v>0.8771929824561403</v>
@@ -2940,98 +3368,113 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D26">
-        <v>0.8670520231213873</v>
+        <v>0.86705202312138729</v>
       </c>
       <c r="E26">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="F26">
-        <v>6.019204616546631</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>6.0192046165466309</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="B27">
-        <v>0.8448275862068966</v>
+        <v>0.84482758620689657</v>
       </c>
       <c r="C27">
         <v>0.84</v>
       </c>
       <c r="D27">
-        <v>0.8424068767908309</v>
+        <v>0.84240687679083093</v>
       </c>
       <c r="E27">
-        <v>0.8428571428571427</v>
+        <v>0.84285714285714275</v>
       </c>
       <c r="F27">
         <v>5.981769323348999</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.8571428571428571</v>
       </c>
       <c r="B28">
-        <v>0.8531073446327684</v>
+        <v>0.85310734463276838</v>
       </c>
       <c r="C28">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D28">
-        <v>0.8579545454545454</v>
+        <v>0.85795454545454541</v>
       </c>
       <c r="E28">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F28">
-        <v>5.958853244781494</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>5.9588532447814941</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B29">
-        <v>0.8604651162790697</v>
+        <v>0.86046511627906974</v>
       </c>
       <c r="C29">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="D29">
-        <v>0.8530259365994236</v>
+        <v>0.85302593659942361</v>
       </c>
       <c r="E29">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="F29">
-        <v>6.074059724807739</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>6.0740597248077393</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="B30">
-        <v>0.864406779661017</v>
+        <v>0.86440677966101698</v>
       </c>
       <c r="C30">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="D30">
-        <v>0.8693181818181818</v>
+        <v>0.86931818181818177</v>
       </c>
       <c r="E30">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="F30">
-        <v>6.110068798065186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>6.1100687980651864</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="B31">
         <v>0.8497109826589595</v>
@@ -3040,36 +3483,42 @@
         <v>0.84</v>
       </c>
       <c r="D31">
-        <v>0.8448275862068966</v>
+        <v>0.84482758620689657</v>
       </c>
       <c r="E31">
-        <v>0.8457142857142856</v>
+        <v>0.84571428571428564</v>
       </c>
       <c r="F31">
-        <v>5.950624465942383</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>5.9506244659423828</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.84</v>
       </c>
       <c r="B32">
-        <v>0.847953216374269</v>
+        <v>0.84795321637426901</v>
       </c>
       <c r="C32">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="D32">
-        <v>0.838150289017341</v>
+        <v>0.83815028901734101</v>
       </c>
       <c r="E32">
-        <v>0.8400000000000001</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F32">
-        <v>6.078865528106689</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>6.0788655281066886</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.8571428571428571</v>
       </c>
@@ -3083,178 +3532,205 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E33">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F33">
-        <v>5.983970403671265</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>5.9839704036712646</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="B34">
-        <v>0.8555555555555555</v>
+        <v>0.85555555555555551</v>
       </c>
       <c r="C34">
         <v>0.88</v>
       </c>
       <c r="D34">
-        <v>0.8676056338028169</v>
+        <v>0.86760563380281686</v>
       </c>
       <c r="E34">
-        <v>0.8657142857142857</v>
+        <v>0.86571428571428566</v>
       </c>
       <c r="F34">
         <v>5.952627420425415</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B35">
-        <v>0.847457627118644</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="C35">
         <v>0.8571428571428571</v>
       </c>
       <c r="D35">
-        <v>0.8522727272727273</v>
+        <v>0.85227272727272729</v>
       </c>
       <c r="E35">
-        <v>0.8514285714285715</v>
+        <v>0.85142857142857153</v>
       </c>
       <c r="F35">
-        <v>5.978399753570557</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>5.9783997535705566</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B36">
-        <v>0.8426966292134831</v>
+        <v>0.84269662921348309</v>
       </c>
       <c r="C36">
         <v>0.8571428571428571</v>
       </c>
       <c r="D36">
-        <v>0.8498583569405099</v>
+        <v>0.84985835694050993</v>
       </c>
       <c r="E36">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F36">
-        <v>5.980213642120361</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>5.9802136421203613</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B37">
-        <v>0.8505747126436781</v>
+        <v>0.85057471264367812</v>
       </c>
       <c r="C37">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="D37">
-        <v>0.8481375358166189</v>
+        <v>0.84813753581661888</v>
       </c>
       <c r="E37">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="F37">
         <v>6.00119948387146</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.8371428571428572</v>
+        <v>0.83714285714285719</v>
       </c>
       <c r="B38">
         <v>0.8314606741573034</v>
       </c>
       <c r="C38">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="D38">
-        <v>0.8385269121813032</v>
+        <v>0.83852691218130315</v>
       </c>
       <c r="E38">
-        <v>0.8371428571428571</v>
+        <v>0.83714285714285708</v>
       </c>
       <c r="F38">
-        <v>6.068710088729858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>6.0687100887298584</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="B39">
-        <v>0.8469945355191257</v>
+        <v>0.84699453551912574</v>
       </c>
       <c r="C39">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="D39">
-        <v>0.8659217877094972</v>
+        <v>0.86592178770949724</v>
       </c>
       <c r="E39">
-        <v>0.8628571428571428</v>
+        <v>0.86285714285714277</v>
       </c>
       <c r="F39">
-        <v>5.999770879745483</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>5.9997708797454834</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="B40">
-        <v>0.8720930232558139</v>
+        <v>0.87209302325581395</v>
       </c>
       <c r="C40">
         <v>0.8571428571428571</v>
       </c>
       <c r="D40">
-        <v>0.8645533141210374</v>
+        <v>0.86455331412103742</v>
       </c>
       <c r="E40">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="F40">
-        <v>5.989872217178345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>5.9898722171783447</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.8571428571428571</v>
       </c>
       <c r="B41">
-        <v>0.861271676300578</v>
+        <v>0.86127167630057799</v>
       </c>
       <c r="C41">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D41">
-        <v>0.8563218390804598</v>
+        <v>0.85632183908045978</v>
       </c>
       <c r="E41">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F41">
-        <v>6.056843042373657</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>6.0568430423736572</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B42">
-        <v>0.8546511627906976</v>
+        <v>0.85465116279069764</v>
       </c>
       <c r="C42">
         <v>0.84</v>
@@ -3263,13 +3739,16 @@
         <v>0.8472622478386167</v>
       </c>
       <c r="E42">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="F42">
-        <v>5.933132410049438</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>5.9331324100494376</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.8571428571428571</v>
       </c>
@@ -3283,53 +3762,62 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E43">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F43">
-        <v>5.937348365783691</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>5.9373483657836914</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="B44">
-        <v>0.8713450292397661</v>
+        <v>0.87134502923976609</v>
       </c>
       <c r="C44">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D44">
-        <v>0.861271676300578</v>
+        <v>0.86127167630057799</v>
       </c>
       <c r="E44">
-        <v>0.862857142857143</v>
+        <v>0.86285714285714299</v>
       </c>
       <c r="F44">
-        <v>5.977165460586548</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>5.9771654605865479</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.84</v>
       </c>
       <c r="B45">
-        <v>0.847953216374269</v>
+        <v>0.84795321637426901</v>
       </c>
       <c r="C45">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="D45">
-        <v>0.838150289017341</v>
+        <v>0.83815028901734101</v>
       </c>
       <c r="E45">
-        <v>0.8400000000000001</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="F45">
-        <v>6.033685445785522</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>6.0336854457855216</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.8571428571428571</v>
       </c>
@@ -3343,95 +3831,110 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="E46">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F46">
-        <v>6.034584522247314</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>6.0345845222473136</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B47">
-        <v>0.8397790055248618</v>
+        <v>0.83977900552486184</v>
       </c>
       <c r="C47">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="D47">
         <v>0.8539325842696629</v>
       </c>
       <c r="E47">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F47">
-        <v>6.127470254898071</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>6.1274702548980713</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="B48">
-        <v>0.8488372093023255</v>
+        <v>0.84883720930232553</v>
       </c>
       <c r="C48">
         <v>0.8342857142857143</v>
       </c>
       <c r="D48">
-        <v>0.8414985590778098</v>
+        <v>0.84149855907780979</v>
       </c>
       <c r="E48">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="F48">
-        <v>6.031859874725342</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>6.0318598747253418</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B49">
-        <v>0.8505747126436781</v>
+        <v>0.85057471264367812</v>
       </c>
       <c r="C49">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="D49">
-        <v>0.8481375358166189</v>
+        <v>0.84813753581661888</v>
       </c>
       <c r="E49">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="F49">
-        <v>5.951357126235962</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>5.9513571262359619</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.84</v>
       </c>
       <c r="B50">
-        <v>0.8324022346368715</v>
+        <v>0.83240223463687146</v>
       </c>
       <c r="C50">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D50">
-        <v>0.8418079096045198</v>
+        <v>0.84180790960451979</v>
       </c>
       <c r="E50">
-        <v>0.8399999999999999</v>
+        <v>0.83999999999999986</v>
       </c>
       <c r="F50">
-        <v>6.441012144088745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>6.4410121440887451</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="B51">
         <v>0.8771929824561403</v>
@@ -3440,121 +3943,139 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D51">
-        <v>0.8670520231213873</v>
+        <v>0.86705202312138729</v>
       </c>
       <c r="E51">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="F51">
-        <v>5.863131284713745</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>5.8631312847137451</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B52">
-        <v>0.847457627118644</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="C52">
         <v>0.8571428571428571</v>
       </c>
       <c r="D52">
-        <v>0.8522727272727273</v>
+        <v>0.85227272727272729</v>
       </c>
       <c r="E52">
-        <v>0.8514285714285715</v>
+        <v>0.85142857142857153</v>
       </c>
       <c r="F52">
-        <v>5.621418714523315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>5.6214187145233154</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B53">
-        <v>0.8465909090909091</v>
+        <v>0.84659090909090906</v>
       </c>
       <c r="C53">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D53">
-        <v>0.8490028490028491</v>
+        <v>0.84900284900284906</v>
       </c>
       <c r="E53">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F53">
-        <v>5.700168371200562</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>5.7001683712005624</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B54">
-        <v>0.8563218390804598</v>
+        <v>0.85632183908045978</v>
       </c>
       <c r="C54">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D54">
-        <v>0.8538681948424068</v>
+        <v>0.85386819484240684</v>
       </c>
       <c r="E54">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="F54">
-        <v>5.629029512405396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>5.6290295124053964</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B55">
-        <v>0.8647058823529412</v>
+        <v>0.86470588235294121</v>
       </c>
       <c r="C55">
         <v>0.84</v>
       </c>
       <c r="D55">
-        <v>0.8521739130434782</v>
+        <v>0.85217391304347823</v>
       </c>
       <c r="E55">
         <v>0.8542857142857142</v>
       </c>
       <c r="F55">
-        <v>6.422477245330811</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>6.4224772453308114</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B56">
-        <v>0.8426966292134831</v>
+        <v>0.84269662921348309</v>
       </c>
       <c r="C56">
         <v>0.8571428571428571</v>
       </c>
       <c r="D56">
-        <v>0.8498583569405099</v>
+        <v>0.84985835694050993</v>
       </c>
       <c r="E56">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F56">
-        <v>6.305551528930664</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>6.3055515289306641</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="B57">
-        <v>0.8700564971751412</v>
+        <v>0.87005649717514122</v>
       </c>
       <c r="C57">
         <v>0.88</v>
@@ -3563,78 +4084,90 @@
         <v>0.875</v>
       </c>
       <c r="E57">
-        <v>0.8742857142857142</v>
+        <v>0.87428571428571422</v>
       </c>
       <c r="F57">
-        <v>6.402179956436157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>6.4021799564361572</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B58">
-        <v>0.8435754189944135</v>
+        <v>0.84357541899441346</v>
       </c>
       <c r="C58">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D58">
-        <v>0.8531073446327684</v>
+        <v>0.85310734463276838</v>
       </c>
       <c r="E58">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F58">
-        <v>6.348128318786621</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>6.3481283187866211</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B59">
-        <v>0.8690476190476191</v>
+        <v>0.86904761904761907</v>
       </c>
       <c r="C59">
         <v>0.8342857142857143</v>
       </c>
       <c r="D59">
-        <v>0.8513119533527697</v>
+        <v>0.85131195335276966</v>
       </c>
       <c r="E59">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="F59">
-        <v>6.277636528015137</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>6.2776365280151367</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B60">
-        <v>0.8388888888888889</v>
+        <v>0.83888888888888891</v>
       </c>
       <c r="C60">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D60">
-        <v>0.8507042253521127</v>
+        <v>0.85070422535211265</v>
       </c>
       <c r="E60">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F60">
-        <v>6.218122243881226</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>6.2181222438812256</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B61">
-        <v>0.8596491228070176</v>
+        <v>0.85964912280701755</v>
       </c>
       <c r="C61">
         <v>0.84</v>
@@ -3643,173 +4176,200 @@
         <v>0.8497109826589595</v>
       </c>
       <c r="E61">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F61">
-        <v>6.318015098571777</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>6.3180150985717773</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B62">
-        <v>0.8426966292134831</v>
+        <v>0.84269662921348309</v>
       </c>
       <c r="C62">
         <v>0.8571428571428571</v>
       </c>
       <c r="D62">
-        <v>0.8498583569405099</v>
+        <v>0.84985835694050993</v>
       </c>
       <c r="E62">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F62">
-        <v>6.2881178855896</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>6.2881178855895996</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="B63">
-        <v>0.8579881656804734</v>
+        <v>0.85798816568047342</v>
       </c>
       <c r="C63">
-        <v>0.8285714285714286</v>
+        <v>0.82857142857142863</v>
       </c>
       <c r="D63">
-        <v>0.8430232558139535</v>
+        <v>0.84302325581395354</v>
       </c>
       <c r="E63">
-        <v>0.8457142857142859</v>
+        <v>0.84571428571428586</v>
       </c>
       <c r="F63">
-        <v>6.426607131958008</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>6.4266071319580078</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B64">
-        <v>0.847457627118644</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="C64">
         <v>0.8571428571428571</v>
       </c>
       <c r="D64">
-        <v>0.8522727272727273</v>
+        <v>0.85227272727272729</v>
       </c>
       <c r="E64">
-        <v>0.8514285714285715</v>
+        <v>0.85142857142857153</v>
       </c>
       <c r="F64">
-        <v>6.241845846176147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>6.2418458461761466</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.8314285714285714</v>
+        <v>0.83142857142857141</v>
       </c>
       <c r="B65">
-        <v>0.8295454545454546</v>
+        <v>0.82954545454545459</v>
       </c>
       <c r="C65">
         <v>0.8342857142857143</v>
       </c>
       <c r="D65">
-        <v>0.8319088319088319</v>
+        <v>0.83190883190883191</v>
       </c>
       <c r="E65">
-        <v>0.8314285714285714</v>
+        <v>0.83142857142857141</v>
       </c>
       <c r="F65">
-        <v>6.210720777511597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>6.2107207775115967</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.86</v>
       </c>
       <c r="B66">
-        <v>0.8461538461538461</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="C66">
         <v>0.88</v>
       </c>
       <c r="D66">
-        <v>0.8627450980392157</v>
+        <v>0.86274509803921573</v>
       </c>
       <c r="E66">
         <v>0.86</v>
       </c>
       <c r="F66">
-        <v>6.784220695495605</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>6.7842206954956046</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B67">
-        <v>0.847457627118644</v>
+        <v>0.84745762711864403</v>
       </c>
       <c r="C67">
         <v>0.8571428571428571</v>
       </c>
       <c r="D67">
-        <v>0.8522727272727273</v>
+        <v>0.85227272727272729</v>
       </c>
       <c r="E67">
-        <v>0.8514285714285715</v>
+        <v>0.85142857142857153</v>
       </c>
       <c r="F67">
-        <v>6.360581159591675</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>6.3605811595916748</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.8714285714285714</v>
+        <v>0.87142857142857144</v>
       </c>
       <c r="B68">
-        <v>0.8735632183908046</v>
+        <v>0.87356321839080464</v>
       </c>
       <c r="C68">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="D68">
-        <v>0.8710601719197708</v>
+        <v>0.87106017191977081</v>
       </c>
       <c r="E68">
-        <v>0.8714285714285714</v>
+        <v>0.87142857142857144</v>
       </c>
       <c r="F68">
-        <v>6.500038623809814</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>6.5000386238098136</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B69">
         <v>0.848314606741573</v>
       </c>
       <c r="C69">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D69">
-        <v>0.8555240793201133</v>
+        <v>0.85552407932011332</v>
       </c>
       <c r="E69">
-        <v>0.8542857142857144</v>
+        <v>0.85428571428571443</v>
       </c>
       <c r="F69">
-        <v>6.596748352050781</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>6.5967483520507813</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.86</v>
       </c>
@@ -3817,184 +4377,211 @@
         <v>0.8539325842696629</v>
       </c>
       <c r="C70">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="D70">
-        <v>0.8611898016997167</v>
+        <v>0.86118980169971671</v>
       </c>
       <c r="E70">
         <v>0.86</v>
       </c>
       <c r="F70">
-        <v>6.534175157546997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>6.5341751575469971</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.8571428571428571</v>
       </c>
       <c r="B71">
-        <v>0.8453038674033149</v>
+        <v>0.84530386740331487</v>
       </c>
       <c r="C71">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="D71">
         <v>0.8595505617977528</v>
       </c>
       <c r="E71">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F71">
-        <v>6.547147750854492</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>6.5471477508544922</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="B72">
-        <v>0.8587570621468926</v>
+        <v>0.85875706214689262</v>
       </c>
       <c r="C72">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="D72">
-        <v>0.8636363636363636</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="E72">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="F72">
-        <v>6.387774229049683</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>6.3877742290496826</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.8571428571428571</v>
       </c>
       <c r="B73">
-        <v>0.8491620111731844</v>
+        <v>0.84916201117318435</v>
       </c>
       <c r="C73">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="D73">
-        <v>0.8587570621468926</v>
+        <v>0.85875706214689262</v>
       </c>
       <c r="E73">
         <v>0.8571428571428571</v>
       </c>
       <c r="F73">
-        <v>6.43702507019043</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>6.4370250701904297</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.86</v>
       </c>
       <c r="B74">
-        <v>0.8662790697674418</v>
+        <v>0.86627906976744184</v>
       </c>
       <c r="C74">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D74">
-        <v>0.8587896253602305</v>
+        <v>0.85878962536023051</v>
       </c>
       <c r="E74">
         <v>0.86</v>
       </c>
       <c r="F74">
-        <v>6.610944271087646</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>6.6109442710876456</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.86</v>
       </c>
       <c r="B75">
-        <v>0.8620689655172413</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="C75">
         <v>0.8571428571428571</v>
       </c>
       <c r="D75">
-        <v>0.8595988538681948</v>
+        <v>0.85959885386819479</v>
       </c>
       <c r="E75">
         <v>0.8600000000000001</v>
       </c>
       <c r="F75">
-        <v>6.53802227973938</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>6.5380222797393799</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="B76">
-        <v>0.8809523809523809</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="C76">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="D76">
-        <v>0.8629737609329446</v>
+        <v>0.86297376093294464</v>
       </c>
       <c r="E76">
-        <v>0.8657142857142857</v>
+        <v>0.86571428571428566</v>
       </c>
       <c r="F76">
-        <v>6.631857633590698</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>6.6318576335906982</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.86</v>
       </c>
       <c r="B77">
-        <v>0.8662790697674418</v>
+        <v>0.86627906976744184</v>
       </c>
       <c r="C77">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D77">
-        <v>0.8587896253602305</v>
+        <v>0.85878962536023051</v>
       </c>
       <c r="E77">
         <v>0.86</v>
       </c>
       <c r="F77">
-        <v>6.323874235153198</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>6.3238742351531982</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B78">
-        <v>0.8563218390804598</v>
+        <v>0.85632183908045978</v>
       </c>
       <c r="C78">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D78">
-        <v>0.8538681948424068</v>
+        <v>0.85386819484240684</v>
       </c>
       <c r="E78">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="F78">
-        <v>6.3178391456604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>6.3178391456604004</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B79">
-        <v>0.8596491228070176</v>
+        <v>0.85964912280701755</v>
       </c>
       <c r="C79">
         <v>0.84</v>
@@ -4003,195 +4590,225 @@
         <v>0.8497109826589595</v>
       </c>
       <c r="E79">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F79">
-        <v>6.613184690475464</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>6.6131846904754639</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.8571428571428571</v>
       </c>
       <c r="B80">
-        <v>0.861271676300578</v>
+        <v>0.86127167630057799</v>
       </c>
       <c r="C80">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D80">
-        <v>0.8563218390804598</v>
+        <v>0.85632183908045978</v>
       </c>
       <c r="E80">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F80">
-        <v>6.443695306777954</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>6.4436953067779541</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0.8571428571428571</v>
       </c>
       <c r="B81">
-        <v>0.874251497005988</v>
+        <v>0.87425149700598803</v>
       </c>
       <c r="C81">
         <v>0.8342857142857143</v>
       </c>
       <c r="D81">
-        <v>0.8538011695906432</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="E81">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F81">
-        <v>6.290113687515259</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>6.2901136875152588</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="B82">
-        <v>0.867816091954023</v>
+        <v>0.86781609195402298</v>
       </c>
       <c r="C82">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D82">
-        <v>0.8653295128939829</v>
+        <v>0.86532951289398286</v>
       </c>
       <c r="E82">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="F82">
-        <v>6.274753332138062</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>6.2747533321380624</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B83">
-        <v>0.8426966292134831</v>
+        <v>0.84269662921348309</v>
       </c>
       <c r="C83">
         <v>0.8571428571428571</v>
       </c>
       <c r="D83">
-        <v>0.8498583569405099</v>
+        <v>0.84985835694050993</v>
       </c>
       <c r="E83">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F83">
-        <v>6.232102394104004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>6.2321023941040039</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.8771428571428571</v>
+        <v>0.87714285714285711</v>
       </c>
       <c r="B84">
-        <v>0.888235294117647</v>
+        <v>0.88823529411764701</v>
       </c>
       <c r="C84">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D84">
-        <v>0.8753623188405797</v>
+        <v>0.87536231884057969</v>
       </c>
       <c r="E84">
-        <v>0.8771428571428572</v>
+        <v>0.87714285714285722</v>
       </c>
       <c r="F84">
-        <v>6.315541982650757</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>6.3155419826507568</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B85">
-        <v>0.8465909090909091</v>
+        <v>0.84659090909090906</v>
       </c>
       <c r="C85">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D85">
-        <v>0.8490028490028491</v>
+        <v>0.84900284900284906</v>
       </c>
       <c r="E85">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F85">
-        <v>6.690109968185425</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>6.6901099681854248</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B86">
-        <v>0.8288770053475936</v>
+        <v>0.82887700534759357</v>
       </c>
       <c r="C86">
-        <v>0.8857142857142857</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="D86">
-        <v>0.856353591160221</v>
+        <v>0.85635359116022103</v>
       </c>
       <c r="E86">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F86">
-        <v>6.317315101623535</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>6.3173151016235352</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="B87">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="C87">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="D87">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="E87">
-        <v>0.8742857142857143</v>
+        <v>0.87428571428571433</v>
       </c>
       <c r="F87">
-        <v>6.259306192398071</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>6.2593061923980713</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.8485714285714285</v>
+        <v>0.84857142857142853</v>
       </c>
       <c r="B88">
-        <v>0.8388888888888889</v>
+        <v>0.83888888888888891</v>
       </c>
       <c r="C88">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D88">
-        <v>0.8507042253521127</v>
+        <v>0.85070422535211265</v>
       </c>
       <c r="E88">
-        <v>0.8485714285714286</v>
+        <v>0.84857142857142864</v>
       </c>
       <c r="F88">
-        <v>6.32066822052002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>6.3206682205200204</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="B89">
         <v>0.8771929824561403</v>
@@ -4200,256 +4817,296 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="D89">
-        <v>0.8670520231213873</v>
+        <v>0.86705202312138729</v>
       </c>
       <c r="E89">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="F89">
-        <v>6.210644960403442</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>6.2106449604034424</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B90">
-        <v>0.8690476190476191</v>
+        <v>0.86904761904761907</v>
       </c>
       <c r="C90">
         <v>0.8342857142857143</v>
       </c>
       <c r="D90">
-        <v>0.8513119533527697</v>
+        <v>0.85131195335276966</v>
       </c>
       <c r="E90">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="F90">
-        <v>6.275262594223022</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>6.2752625942230216</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.86</v>
       </c>
       <c r="B91">
-        <v>0.8579545454545454</v>
+        <v>0.85795454545454541</v>
       </c>
       <c r="C91">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D91">
-        <v>0.8603988603988604</v>
+        <v>0.86039886039886038</v>
       </c>
       <c r="E91">
         <v>0.8600000000000001</v>
       </c>
       <c r="F91">
-        <v>6.243003368377686</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>6.2430033683776864</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0.8571428571428571</v>
       </c>
       <c r="B92">
-        <v>0.8531073446327684</v>
+        <v>0.85310734463276838</v>
       </c>
       <c r="C92">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D92">
-        <v>0.8579545454545454</v>
+        <v>0.85795454545454541</v>
       </c>
       <c r="E92">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F92">
         <v>6.278026819229126</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>0.8571428571428571</v>
       </c>
       <c r="B93">
-        <v>0.8531073446327684</v>
+        <v>0.85310734463276838</v>
       </c>
       <c r="C93">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D93">
-        <v>0.8579545454545454</v>
+        <v>0.85795454545454541</v>
       </c>
       <c r="E93">
-        <v>0.8571428571428572</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="F93">
-        <v>8.103755950927734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>8.1037559509277344</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="B94">
-        <v>0.8522727272727273</v>
+        <v>0.85227272727272729</v>
       </c>
       <c r="C94">
         <v>0.8571428571428571</v>
       </c>
       <c r="D94">
-        <v>0.8547008547008547</v>
+        <v>0.85470085470085466</v>
       </c>
       <c r="E94">
-        <v>0.8542857142857143</v>
+        <v>0.85428571428571431</v>
       </c>
       <c r="F94">
-        <v>6.304611206054688</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>6.3046112060546884</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="B95">
-        <v>0.8764705882352941</v>
+        <v>0.87647058823529411</v>
       </c>
       <c r="C95">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D95">
-        <v>0.863768115942029</v>
+        <v>0.86376811594202896</v>
       </c>
       <c r="E95">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="F95">
-        <v>5.972831726074219</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>5.9728317260742188</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="B96">
         <v>0.8554913294797688</v>
       </c>
       <c r="C96">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="D96">
-        <v>0.8505747126436781</v>
+        <v>0.85057471264367812</v>
       </c>
       <c r="E96">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="F96">
-        <v>6.071370601654053</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>6.0713706016540527</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.8657142857142858</v>
+        <v>0.86571428571428577</v>
       </c>
       <c r="B97">
-        <v>0.8636363636363636</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="C97">
-        <v>0.8685714285714285</v>
+        <v>0.86857142857142855</v>
       </c>
       <c r="D97">
-        <v>0.8660968660968661</v>
+        <v>0.86609686609686609</v>
       </c>
       <c r="E97">
-        <v>0.8657142857142857</v>
+        <v>0.86571428571428566</v>
       </c>
       <c r="F97">
-        <v>6.051153659820557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>6.0511536598205566</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>0.86</v>
       </c>
       <c r="B98">
-        <v>0.8579545454545454</v>
+        <v>0.85795454545454541</v>
       </c>
       <c r="C98">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D98">
-        <v>0.8603988603988604</v>
+        <v>0.86039886039886038</v>
       </c>
       <c r="E98">
         <v>0.8600000000000001</v>
       </c>
       <c r="F98">
-        <v>6.133853912353516</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>6.1338539123535156</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.8457142857142858</v>
+        <v>0.84571428571428575</v>
       </c>
       <c r="B99">
-        <v>0.8538011695906432</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="C99">
         <v>0.8342857142857143</v>
       </c>
       <c r="D99">
-        <v>0.8439306358381503</v>
+        <v>0.84393063583815031</v>
       </c>
       <c r="E99">
-        <v>0.8457142857142859</v>
+        <v>0.84571428571428586</v>
       </c>
       <c r="F99">
-        <v>6.319792032241821</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>6.3197920322418213</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="B100">
         <v>0.8370786516853933</v>
       </c>
       <c r="C100">
-        <v>0.8514285714285714</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D100">
-        <v>0.8441926345609065</v>
+        <v>0.84419263456090654</v>
       </c>
       <c r="E100">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="F100">
-        <v>6.70963716506958</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>6.7096371650695801</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="B101">
-        <v>0.8296703296703297</v>
+        <v>0.82967032967032972</v>
       </c>
       <c r="C101">
-        <v>0.8628571428571429</v>
+        <v>0.86285714285714288</v>
       </c>
       <c r="D101">
-        <v>0.84593837535014</v>
+        <v>0.84593837535014005</v>
       </c>
       <c r="E101">
-        <v>0.8428571428571429</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="F101">
-        <v>6.083112478256226</v>
+        <v>6.0831124782562256</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>